--- a/NformTester/NformTester/Keywordscripts/600.30.20.90_ConfiguringFloorplan.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.90_ConfiguringFloorplan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="8355" windowHeight="7800"/>
@@ -1196,12 +1196,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7464" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7476" uniqueCount="848">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3755,10 +3755,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\samples\floor1.png"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>;Verify</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3779,10 +3775,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\samples\floor2.png"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3804,6 +3796,29 @@
   </si>
   <si>
     <t>;Scenario 5 Configure a floorplan. Arrange the icons associated with a device group by dragging and dropping.Otherwise manipulate through a keypad.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Delete_File_Path$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Delete_File_Path_2$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Image_File_Name$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Image_File_Name_2$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4059,7 +4074,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 3" xfId="3"/>
@@ -4507,7 +4522,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4791,10 +4806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4889,25 +4904,19 @@
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>792</v>
+      <c r="D3" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>844</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>794</v>
-      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -4924,14 +4933,14 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>795</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>796</v>
-      </c>
-      <c r="F4" s="13">
-        <v>30</v>
+      <c r="D4" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>845</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -4943,7 +4952,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>757</v>
       </c>
@@ -4953,19 +4962,29 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>827</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="24"/>
+      <c r="D5" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15">
@@ -4978,35 +4997,23 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>813</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>815</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>818</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="N6" s="24"/>
+      <c r="D6" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="F6" s="13">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="15">
@@ -5014,13 +5021,13 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>828</v>
+      <c r="D7" s="21" t="s">
+        <v>827</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -5034,7 +5041,7 @@
       <c r="N7" s="24"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>801</v>
       </c>
@@ -5042,19 +5049,35 @@
       <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>829</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="16"/>
+      <c r="D8" s="23" t="s">
+        <v>813</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="N8" s="24"/>
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" ht="15">
@@ -5065,8 +5088,8 @@
       <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>830</v>
+      <c r="D9" s="14" t="s">
+        <v>828</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -5077,10 +5100,10 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="2" t="s">
         <v>761</v>
       </c>
@@ -5090,43 +5113,33 @@
       <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="F10" s="20">
-        <v>60</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="22"/>
+      <c r="D10" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>797</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="D11" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -5145,17 +5158,15 @@
         <v>11</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>2</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="F12" s="20">
+        <v>60</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -5177,13 +5188,13 @@
         <v>797</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>806</v>
+        <v>2</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -5206,17 +5217,15 @@
         <v>797</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>619</v>
+        <v>19</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>807</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -5237,17 +5246,15 @@
         <v>797</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>807</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
@@ -5271,13 +5278,13 @@
         <v>619</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>621</v>
+        <v>250</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -5302,12 +5309,14 @@
         <v>619</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>626</v>
+        <v>249</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>807</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
@@ -5331,17 +5340,15 @@
         <v>619</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>17</v>
+        <v>621</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>808</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -5361,10 +5368,10 @@
         <v>797</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>95</v>
+        <v>626</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>2</v>
@@ -5392,16 +5399,20 @@
         <v>797</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>19</v>
+        <v>619</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>808</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -5421,10 +5432,10 @@
         <v>797</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>19</v>
+        <v>616</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>2</v>
@@ -5450,17 +5461,15 @@
         <v>797</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>809</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -5478,10 +5487,10 @@
         <v>797</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>2</v>
@@ -5504,16 +5513,16 @@
         <v>797</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -5532,10 +5541,10 @@
         <v>797</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>2</v>
@@ -5556,15 +5565,17 @@
         <v>797</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>810</v>
+      </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -5580,10 +5591,10 @@
         <v>797</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>2</v>
@@ -5601,15 +5612,17 @@
         <v>27</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>812</v>
-      </c>
-      <c r="F28" s="20">
-        <v>2</v>
-      </c>
-      <c r="G28" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -5622,49 +5635,47 @@
       <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="16"/>
+      <c r="E29" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:15">
       <c r="C30" s="4">
         <v>29</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="16"/>
+      <c r="D30" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="F30" s="20">
+        <v>2</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:15">
       <c r="C31" s="4">
@@ -5674,17 +5685,15 @@
         <v>797</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>617</v>
+        <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>807</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -5700,10 +5709,10 @@
         <v>797</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>2</v>
@@ -5720,51 +5729,51 @@
       <c r="C33" s="4">
         <v>32</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>619</v>
+      <c r="E33" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="26"/>
+        <v>617</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="26"/>
+      <c r="E34" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="16"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="4">
@@ -5774,18 +5783,16 @@
         <v>797</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>249</v>
+        <v>619</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="I35" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -5803,13 +5810,15 @@
         <v>628</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="I36" s="25"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -5820,29 +5829,27 @@
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="16"/>
+      <c r="E37" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="4">
@@ -5852,7 +5859,7 @@
         <v>797</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>271</v>
+        <v>628</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>17</v>
@@ -5860,32 +5867,36 @@
       <c r="G38" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
-      <c r="N38" s="22"/>
+      <c r="N38" s="26"/>
     </row>
     <row r="39" spans="3:14">
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>802</v>
+      </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -5896,40 +5907,40 @@
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="16"/>
+      <c r="E40" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="4">
         <v>40</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="E41" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="20" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="4"/>
@@ -5948,17 +5959,15 @@
         <v>797</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>617</v>
+        <v>22</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>807</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -5974,10 +5983,10 @@
         <v>797</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>2</v>
@@ -5997,16 +6006,18 @@
       <c r="D44" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>807</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -6022,23 +6033,21 @@
         <v>797</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="22"/>
+        <v>616</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="16"/>
     </row>
     <row r="46" spans="3:14">
       <c r="C46" s="4">
@@ -6047,22 +6056,22 @@
       <c r="D46" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>628</v>
+      <c r="E46" s="20" t="s">
+        <v>619</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="22"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="16"/>
     </row>
     <row r="47" spans="3:14">
       <c r="C47" s="4">
@@ -6072,35 +6081,33 @@
         <v>797</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="16"/>
+        <v>628</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="22"/>
     </row>
     <row r="48" spans="3:14">
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>271</v>
+      <c r="E48" s="4" t="s">
+        <v>628</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>17</v>
@@ -6120,58 +6127,68 @@
       <c r="C49" s="4">
         <v>48</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E49" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>802</v>
+      </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="3:14" ht="15">
+    <row r="50" spans="3:14">
       <c r="C50" s="4">
         <v>49</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="16"/>
+      <c r="D50" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="22"/>
     </row>
     <row r="51" spans="3:14">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="E51" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="20" t="s">
         <v>2</v>
       </c>
       <c r="H51" s="4"/>
@@ -6182,22 +6199,16 @@
       <c r="M51" s="4"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="3:14">
+    <row r="52" spans="3:14" ht="15">
       <c r="C52" s="4">
         <v>51</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D52" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -6216,8 +6227,8 @@
       <c r="E53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="20" t="s">
-        <v>99</v>
+      <c r="F53" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>2</v>
@@ -6234,89 +6245,89 @@
       <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>804</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="F54" s="20">
-        <v>2</v>
-      </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="22"/>
+      <c r="D54" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="3:14" ht="15">
+    <row r="55" spans="3:14">
       <c r="C55" s="4">
         <v>54</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>835</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="22"/>
+      <c r="D55" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="16"/>
     </row>
     <row r="56" spans="3:14">
       <c r="C56" s="4">
         <v>55</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="16"/>
+      <c r="D56" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="F56" s="20">
+        <v>2</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="22"/>
     </row>
-    <row r="57" spans="3:14">
+    <row r="57" spans="3:14" ht="15">
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="16"/>
+      <c r="D57" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="22"/>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="4">
@@ -6326,17 +6337,15 @@
         <v>797</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>617</v>
+        <v>22</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>807</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -6352,10 +6361,10 @@
         <v>797</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>836</v>
+        <v>76</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>2</v>
@@ -6372,24 +6381,22 @@
       <c r="C60" s="4">
         <v>59</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E60" s="20" t="s">
-        <v>619</v>
+      <c r="E60" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G60" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="4">
-        <v>2</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>833</v>
-      </c>
+      <c r="H60" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -6400,20 +6407,20 @@
       <c r="C61" s="4">
         <v>60</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E61" s="20" t="s">
-        <v>619</v>
+      <c r="E61" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G61" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="4"/>
-      <c r="I61" s="25"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -6424,51 +6431,53 @@
       <c r="C62" s="4">
         <v>61</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>629</v>
+      <c r="E62" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="16"/>
     </row>
     <row r="63" spans="3:14">
       <c r="C63" s="4">
         <v>62</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>17</v>
+      <c r="E63" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="22"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="16"/>
     </row>
     <row r="64" spans="3:14">
       <c r="C64" s="4">
@@ -6478,35 +6487,33 @@
         <v>797</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="16"/>
+        <v>628</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="22"/>
     </row>
     <row r="65" spans="3:14">
       <c r="C65" s="4">
         <v>64</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E65" s="20" t="s">
-        <v>271</v>
+      <c r="E65" s="4" t="s">
+        <v>628</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>17</v>
@@ -6526,20 +6533,24 @@
       <c r="C66" s="4">
         <v>65</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E66" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>802</v>
+      </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -6550,40 +6561,40 @@
       <c r="C67" s="4">
         <v>66</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="16"/>
+      <c r="E67" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="22"/>
     </row>
     <row r="68" spans="3:14">
       <c r="C68" s="4">
         <v>67</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" s="4" t="s">
+      <c r="E68" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="H68" s="4"/>
@@ -6602,17 +6613,15 @@
         <v>797</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>617</v>
+        <v>22</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>807</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -6628,10 +6637,10 @@
         <v>797</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>836</v>
+        <v>76</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>2</v>
@@ -6648,24 +6657,22 @@
       <c r="C71" s="4">
         <v>70</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E71" s="20" t="s">
-        <v>619</v>
+      <c r="E71" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="G71" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H71" s="4">
-        <v>2</v>
-      </c>
-      <c r="I71" s="25" t="s">
-        <v>833</v>
-      </c>
+      <c r="H71" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6676,20 +6683,20 @@
       <c r="C72" s="4">
         <v>71</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E72" s="20" t="s">
-        <v>619</v>
+      <c r="E72" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G72" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H72" s="4"/>
-      <c r="I72" s="25"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -6700,55 +6707,53 @@
       <c r="C73" s="4">
         <v>72</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>629</v>
+      <c r="E73" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>838</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>839</v>
-      </c>
-      <c r="J73" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="16"/>
     </row>
     <row r="74" spans="3:14">
       <c r="C74" s="4">
         <v>73</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>95</v>
+      <c r="E74" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="22"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="16"/>
     </row>
     <row r="75" spans="3:14">
       <c r="C75" s="4">
@@ -6758,35 +6763,37 @@
         <v>797</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="16"/>
+        <v>628</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="22"/>
     </row>
     <row r="76" spans="3:14">
       <c r="C76" s="4">
         <v>75</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E76" s="20" t="s">
-        <v>616</v>
+      <c r="E76" s="4" t="s">
+        <v>628</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>95</v>
@@ -6794,26 +6801,36 @@
       <c r="G76" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="16"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="22"/>
     </row>
-    <row r="77" spans="3:14" ht="15">
+    <row r="77" spans="3:14">
       <c r="C77" s="4">
         <v>76</v>
       </c>
-      <c r="D77" s="14" t="s">
-        <v>841</v>
-      </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="D77" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>802</v>
+      </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -6825,15 +6842,17 @@
         <v>77</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="F78" s="20">
-        <v>2</v>
-      </c>
-      <c r="G78" s="20"/>
+        <v>616</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6847,7 +6866,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -6887,7 +6906,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -6927,13 +6946,13 @@
         <v>82</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
+        <v>841</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -6945,48 +6964,40 @@
         <v>83</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="22"/>
+        <v>778</v>
+      </c>
+      <c r="F84" s="20">
+        <v>2</v>
+      </c>
+      <c r="G84" s="20"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="3:14">
+    <row r="85" spans="3:14" ht="15">
       <c r="C85" s="4">
         <v>84</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>797</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="22"/>
+      <c r="D85" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="16"/>
     </row>
     <row r="86" spans="3:14">
       <c r="C86" s="4">
@@ -6996,17 +7007,15 @@
         <v>797</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H86" s="20" t="s">
-        <v>821</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" s="20"/>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
@@ -7022,10 +7031,10 @@
         <v>797</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="G87" s="20" t="s">
         <v>2</v>
@@ -7046,16 +7055,16 @@
         <v>797</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
@@ -7072,10 +7081,10 @@
         <v>797</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="G89" s="20" t="s">
         <v>2</v>
@@ -7096,15 +7105,17 @@
         <v>797</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>822</v>
+      </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
@@ -7120,10 +7131,10 @@
         <v>797</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G91" s="20" t="s">
         <v>2</v>
@@ -7141,15 +7152,17 @@
         <v>91</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="F92" s="20">
-        <v>3</v>
-      </c>
-      <c r="G92" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="H92" s="20"/>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
@@ -7166,10 +7179,10 @@
         <v>797</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G93" s="20" t="s">
         <v>2</v>
@@ -7187,17 +7200,15 @@
         <v>93</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>2</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="F94" s="20">
+        <v>3</v>
+      </c>
+      <c r="G94" s="20"/>
       <c r="H94" s="20"/>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -7214,17 +7225,15 @@
         <v>797</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>617</v>
+        <v>22</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H95" s="20" t="s">
-        <v>823</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" s="20"/>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
@@ -7240,10 +7249,10 @@
         <v>797</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>2</v>
@@ -7267,12 +7276,14 @@
         <v>616</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>95</v>
+        <v>617</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
@@ -7285,28 +7296,104 @@
         <v>97</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>572</v>
+        <v>616</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="I98" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
       <c r="N98" s="22"/>
     </row>
+    <row r="99" spans="3:14">
+      <c r="C99" s="4">
+        <v>98</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="22"/>
+    </row>
+    <row r="100" spans="3:14">
+      <c r="C100" s="4">
+        <v>99</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="I100" s="13"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="22"/>
+    </row>
+    <row r="101" spans="3:14">
+      <c r="C101" s="4">
+        <v>100</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14">
+      <c r="C102" s="4">
+        <v>101</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>845</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N98">
+  <conditionalFormatting sqref="N2:N100">
     <cfRule type="cellIs" dxfId="1" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7315,16 +7402,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D84:D97 D82 D80 D78 D3:D4 D6 D51:D54 D56:D76 D10:D49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86:D99 D84 D82 D80 D3:D6 D8 D53:D56 D58:D78 D12:D51 D101:D102">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5:F100">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G100">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E102">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.30.20.90_ConfiguringFloorplan.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.90_ConfiguringFloorplan.xlsx
@@ -3698,10 +3698,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3819,6 +3815,10 @@
   </si>
   <si>
     <t>$Sys_Image_File_Name_2$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4004,7 +4004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4072,6 +4072,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4808,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="C61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4820,8 +4821,8 @@
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="10" max="10" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1">
@@ -4905,13 +4906,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>843</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>844</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -4934,13 +4935,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>843</v>
-      </c>
       <c r="F4" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -5027,7 +5028,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -5062,20 +5063,20 @@
       <c r="H8" s="20" t="s">
         <v>815</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="L8" s="20" t="s">
         <v>817</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="M8" s="20" t="s">
         <v>818</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>819</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="11"/>
@@ -5089,7 +5090,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -5114,7 +5115,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5135,7 +5136,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -5158,7 +5159,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>805</v>
@@ -5345,8 +5346,8 @@
       <c r="G18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>816</v>
+      <c r="H18" s="27" t="s">
+        <v>847</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -5816,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I36" s="25"/>
       <c r="J36" s="20"/>
@@ -5842,7 +5843,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -6090,7 +6091,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -6204,7 +6205,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -6316,7 +6317,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -6414,7 +6415,7 @@
         <v>616</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>2</v>
@@ -6447,7 +6448,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -6496,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -6690,7 +6691,7 @@
         <v>616</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>2</v>
@@ -6723,7 +6724,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -6772,13 +6773,13 @@
         <v>7</v>
       </c>
       <c r="H75" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="I75" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="I75" s="20" t="s">
+      <c r="J75" s="20" t="s">
         <v>837</v>
-      </c>
-      <c r="J75" s="20" t="s">
-        <v>838</v>
       </c>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
@@ -6866,7 +6867,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -6906,7 +6907,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -6946,7 +6947,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -7064,7 +7065,7 @@
         <v>56</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
@@ -7114,7 +7115,7 @@
         <v>13</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -7282,7 +7283,7 @@
         <v>56</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -7344,7 +7345,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>572</v>
@@ -7354,7 +7355,7 @@
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="20"/>
@@ -7368,13 +7369,13 @@
         <v>100</v>
       </c>
       <c r="D101" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E101" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="F101" s="20" t="s">
         <v>843</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="102" spans="3:14">
@@ -7382,13 +7383,13 @@
         <v>101</v>
       </c>
       <c r="D102" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E102" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="E102" s="20" t="s">
-        <v>843</v>
-      </c>
       <c r="F102" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
